--- a/public/data/profit/profit_table_republic_of_the_congo.xlsx
+++ b/public/data/profit/profit_table_republic_of_the_congo.xlsx
@@ -1308,70 +1308,70 @@
         <v>83</v>
       </c>
       <c r="D2" t="n">
-        <v>-24.91</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="G2" t="n">
-        <v>-31.26</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>-32.6</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>-25.76</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>-90.49</v>
+        <v>-28.09</v>
       </c>
       <c r="L2" t="n">
-        <v>-55.7</v>
+        <v>-24</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>-78.62</v>
+        <v>-41.83</v>
       </c>
       <c r="O2" t="n">
-        <v>-120.52</v>
+        <v>-86.55</v>
       </c>
       <c r="P2" t="n">
-        <v>-108.38</v>
+        <v>-67.89</v>
       </c>
       <c r="Q2" t="n">
-        <v>548.24</v>
+        <v>1157.89</v>
       </c>
       <c r="R2" t="n">
-        <v>-41.6</v>
+        <v>-35.17</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>-99.59</v>
+        <v>-37.19</v>
       </c>
       <c r="U2" t="n">
-        <v>-88.37</v>
+        <v>-25.97</v>
       </c>
       <c r="V2" t="n">
-        <v>-31.73</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>26.46</v>
+        <v>129.57</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>-25.63</v>
+        <v>19.86</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>
@@ -1394,16 +1394,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>-30.5</v>
+        <v>3.36</v>
       </c>
       <c r="G3" t="n">
-        <v>-28.5</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-28.61</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -1412,25 +1412,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>-53.21</v>
+        <v>-25.48</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>-30.71</v>
+        <v>-22.85</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>-56.85</v>
+        <v>-13.15</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-39.89</v>
+        <v>-13.78</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -1442,16 +1442,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>-28.53</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>-10.1</v>
+        <v>89.84</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>-28.22</v>
+        <v>12.69</v>
       </c>
       <c r="Z3" t="n">
         <v>0</v>
@@ -1474,16 +1474,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>3.35</v>
+        <v>46.16</v>
       </c>
       <c r="G4" t="n">
-        <v>-49.05</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>-51.66</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -1492,13 +1492,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>-62.53</v>
+        <v>-19.7</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>-65.03</v>
+        <v>-41.59</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -1510,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>-42.33</v>
+        <v>-20.03</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -1522,16 +1522,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>-50.07</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>19.03</v>
+        <v>159.95</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>-29.87</v>
+        <v>17.95</v>
       </c>
       <c r="Z4" t="n">
         <v>0</v>
@@ -1548,73 +1548,73 @@
         <v>86</v>
       </c>
       <c r="D5" t="n">
-        <v>-95.54</v>
+        <v>-23.74</v>
       </c>
       <c r="E5" t="n">
-        <v>-134.31</v>
+        <v>-73.16</v>
       </c>
       <c r="F5" t="n">
-        <v>91.35</v>
+        <v>125.31</v>
       </c>
       <c r="G5" t="n">
-        <v>-37.71</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>-39.65</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>-96.09</v>
+        <v>-24.4</v>
       </c>
       <c r="K5" t="n">
-        <v>-82.29</v>
+        <v>-26.81</v>
       </c>
       <c r="L5" t="n">
-        <v>-22.88</v>
+        <v>11.11</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>-139.47</v>
+        <v>-71.54</v>
       </c>
       <c r="O5" t="n">
-        <v>-23.22</v>
+        <v>2.54</v>
       </c>
       <c r="P5" t="n">
-        <v>-162.69</v>
+        <v>-104.92</v>
       </c>
       <c r="Q5" t="n">
-        <v>649.36</v>
+        <v>709.64</v>
       </c>
       <c r="R5" t="n">
-        <v>-73.57</v>
+        <v>-31.08</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>-149.94</v>
+        <v>-94.46</v>
       </c>
       <c r="U5" t="n">
-        <v>-66.2</v>
+        <v>-10.72</v>
       </c>
       <c r="V5" t="n">
-        <v>-38.01</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>109.02</v>
+        <v>176.94</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>-39.14</v>
+        <v>45.36</v>
       </c>
       <c r="Z5" t="n">
-        <v>-34.35</v>
+        <v>21.13</v>
       </c>
     </row>
     <row r="6">
@@ -1634,16 +1634,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>686.73</v>
+        <v>480.49</v>
       </c>
       <c r="G6" t="n">
-        <v>19.16</v>
+        <v>200.8</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-73.76</v>
+        <v>-29.98</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1652,13 +1652,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>284.99</v>
+        <v>171.42</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>-111.38</v>
+        <v>-55.71</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-90.57</v>
+        <v>-63.26</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1682,16 +1682,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>4.32</v>
+        <v>162.82</v>
       </c>
       <c r="W6" t="n">
-        <v>433.24</v>
+        <v>554.05</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>17.87</v>
+        <v>156</v>
       </c>
       <c r="Z6" t="n">
         <v>0</v>
@@ -1714,16 +1714,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>-18.73</v>
+        <v>10.81</v>
       </c>
       <c r="G7" t="n">
-        <v>-28.5</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>-28.61</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1732,13 +1732,13 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>-35.21</v>
+        <v>-18.56</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>-23.91</v>
+        <v>-22.54</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>-27.02</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1762,16 +1762,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>-28.53</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>-10.04</v>
+        <v>65.32</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>-14.42</v>
+        <v>0</v>
       </c>
       <c r="Z7" t="n">
         <v>0</v>
@@ -1794,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>-130.61</v>
+        <v>-51.89</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1809,19 +1809,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>-64.69</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>-140.37</v>
+        <v>-61.66</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>-66.91</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>-121.1</v>
+        <v>-63.66</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1836,16 +1836,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>-66.67</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>-63.08</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>-52.79</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1874,16 +1874,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>359.73</v>
+        <v>366.12</v>
       </c>
       <c r="G9" t="n">
-        <v>-47.25</v>
+        <v>151.72</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>-106.53</v>
+        <v>-47.5</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>58.41</v>
+        <v>89.9</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>-172.4</v>
+        <v>-66.88</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>-149.64</v>
+        <v>-61.06</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1922,16 +1922,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>-39.9</v>
+        <v>183.34</v>
       </c>
       <c r="W9" t="n">
-        <v>191.24</v>
+        <v>325.8</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>28.01</v>
+        <v>299.69</v>
       </c>
       <c r="Z9" t="n">
         <v>0</v>
@@ -1948,37 +1948,37 @@
         <v>92</v>
       </c>
       <c r="D10" t="n">
-        <v>-195.68</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-333.19</v>
+        <v>-133.97</v>
       </c>
       <c r="G10" t="n">
-        <v>-32.44</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>-32.53</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>-195.8</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>-394.9</v>
+        <v>2.4</v>
       </c>
       <c r="L10" t="n">
-        <v>-416.36</v>
+        <v>-213.41</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>-347.22</v>
+        <v>-62.45</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1990,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>-204.51</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1999,19 +1999,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>-425.6</v>
+        <v>-48.05</v>
       </c>
       <c r="V10" t="n">
-        <v>-32.44</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>-304.62</v>
+        <v>44.43</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>-187.78</v>
+        <v>0</v>
       </c>
       <c r="Z10" t="n">
         <v>0</v>
@@ -2034,16 +2034,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>287.13</v>
+        <v>309.38</v>
       </c>
       <c r="G11" t="n">
-        <v>-52.93</v>
+        <v>143.28</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-92.39</v>
+        <v>-1.09</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>36.62</v>
+        <v>68.85</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>-139.26</v>
+        <v>-49.46</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>-132.53</v>
+        <v>-35.26</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -2082,16 +2082,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-61.94</v>
+        <v>92.06</v>
       </c>
       <c r="W11" t="n">
-        <v>171.57</v>
+        <v>261.78</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>33.48</v>
+        <v>193.55</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
@@ -2114,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>-365.81</v>
+        <v>-179.51</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>-514.4</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>-426.37</v>
+        <v>-237.64</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>-330.18</v>
+        <v>-47.99</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -2156,16 +2156,16 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>-505.61</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>-558.66</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>-310.15</v>
+        <v>-9.58</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>712.97</v>
+        <v>480.63</v>
       </c>
       <c r="G13" t="n">
-        <v>29.86</v>
+        <v>187.54</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-109.23</v>
+        <v>-59.67</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -2212,13 +2212,13 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>359.64</v>
+        <v>232.29</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-125.75</v>
+        <v>-59.9</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -2230,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>-167.34</v>
+        <v>-113.29</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -2239,19 +2239,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>388.52</v>
+        <v>449.97</v>
       </c>
       <c r="V13" t="n">
-        <v>35.16</v>
+        <v>191.55</v>
       </c>
       <c r="W13" t="n">
-        <v>406.97</v>
+        <v>474.34</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>597.48</v>
+        <v>802.37</v>
       </c>
       <c r="Z13" t="n">
         <v>0</v>
@@ -2274,16 +2274,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>68.2</v>
+        <v>139.94</v>
       </c>
       <c r="G14" t="n">
-        <v>-80.86</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-93.04</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -2292,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>-83.35</v>
+        <v>-9.1</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>-162.9</v>
+        <v>-41.54</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -2310,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>-122.14</v>
+        <v>-30.54</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -2322,16 +2322,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-83.99</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>1.43</v>
+        <v>170.4</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-59.81</v>
+        <v>104.85</v>
       </c>
       <c r="Z14" t="n">
         <v>0</v>
@@ -2354,16 +2354,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>569.63</v>
+        <v>577.49</v>
       </c>
       <c r="G15" t="n">
-        <v>44.36</v>
+        <v>205.17</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>-112.02</v>
+        <v>-62.72</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -2372,13 +2372,13 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>202.24</v>
+        <v>227.18</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>-117.48</v>
+        <v>-63.76</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -2390,7 +2390,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>-167.19</v>
+        <v>-122.1</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -2399,19 +2399,19 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>200.42</v>
+        <v>323.3</v>
       </c>
       <c r="V15" t="n">
-        <v>44.91</v>
+        <v>201.55</v>
       </c>
       <c r="W15" t="n">
-        <v>537.84</v>
+        <v>650.56</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>532.05</v>
+        <v>706.72</v>
       </c>
       <c r="Z15" t="n">
         <v>0</v>
@@ -2434,16 +2434,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1104.9</v>
+        <v>539.11</v>
       </c>
       <c r="G16" t="n">
-        <v>24.07</v>
+        <v>156.13</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-89.94</v>
+        <v>-41.46</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -2452,13 +2452,13 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>581.46</v>
+        <v>251.42</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>-77.4</v>
+        <v>-25.31</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -2470,7 +2470,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>-148.42</v>
+        <v>-81.38</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -2479,19 +2479,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>351.47</v>
+        <v>460.84</v>
       </c>
       <c r="V16" t="n">
-        <v>-8.19</v>
+        <v>117.28</v>
       </c>
       <c r="W16" t="n">
-        <v>365.89</v>
+        <v>448.88</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>498.21</v>
+        <v>574.85</v>
       </c>
       <c r="Z16" t="n">
         <v>0</v>
@@ -2514,16 +2514,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>89.75</v>
+        <v>125.61</v>
       </c>
       <c r="G17" t="n">
-        <v>-26.56</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-46.38</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>-37.92</v>
+        <v>-0.82</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>-125.85</v>
+        <v>-44.86</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -2550,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>-86.5</v>
+        <v>-25.09</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -2562,16 +2562,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-34.57</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>46.33</v>
+        <v>127.31</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>8.52</v>
+        <v>120.38</v>
       </c>
       <c r="Z17" t="n">
         <v>0</v>
@@ -2594,16 +2594,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>18.72</v>
+        <v>46.52</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.07</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>-13.62</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2612,25 +2612,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>-68.75</v>
+        <v>-46.2</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>-76.46</v>
+        <v>-39.54</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>-51.48</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>-25.44</v>
+        <v>1.61</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -2639,19 +2639,19 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>5.42</v>
+        <v>16.55</v>
       </c>
       <c r="V18" t="n">
-        <v>-10.83</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>18.58</v>
+        <v>73.48</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>-12.14</v>
+        <v>0</v>
       </c>
       <c r="Z18" t="n">
         <v>0</v>
@@ -2674,16 +2674,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>-50.45</v>
+        <v>5.29</v>
       </c>
       <c r="G19" t="n">
-        <v>-12.66</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>-12.76</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2692,25 +2692,25 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>-72.54</v>
+        <v>-34.96</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>-58.6</v>
+        <v>-45.05</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>-57.47</v>
+        <v>-35.56</v>
       </c>
       <c r="Q19" t="n">
-        <v>-15.56</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>-24.05</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2722,16 +2722,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>-12.6</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>-29.49</v>
+        <v>116.65</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>-19.39</v>
+        <v>0</v>
       </c>
       <c r="Z19" t="n">
         <v>0</v>
@@ -2754,16 +2754,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>16.62</v>
+        <v>62.46</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.48</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-13.35</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2772,25 +2772,25 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>-39.75</v>
+        <v>2.36</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>-66.14</v>
+        <v>-23.33</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>-44.56</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>-28.26</v>
+        <v>-35.49</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2799,19 +2799,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>28.41</v>
+        <v>64.76</v>
       </c>
       <c r="V20" t="n">
-        <v>-9.09</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>5.56</v>
+        <v>87.37</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>-12.91</v>
+        <v>47.54</v>
       </c>
       <c r="Z20" t="n">
         <v>0</v>
@@ -2834,16 +2834,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>-20.59</v>
+        <v>8.08</v>
       </c>
       <c r="G21" t="n">
-        <v>-14.59</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>-12.76</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2852,25 +2852,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>-74.57</v>
+        <v>-47.33</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>-64.02</v>
+        <v>-42.54</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>-51.55</v>
+        <v>-30.49</v>
       </c>
       <c r="Q21" t="n">
-        <v>-1.78</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>-28.1</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2882,16 +2882,16 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>-12.6</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>-6.05</v>
+        <v>40.6</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>-19.86</v>
+        <v>0</v>
       </c>
       <c r="Z21" t="n">
         <v>0</v>
@@ -2914,10 +2914,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1479.86</v>
+        <v>821.53</v>
       </c>
       <c r="G22" t="n">
-        <v>163.5</v>
+        <v>277.08</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2932,13 +2932,13 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1143.14</v>
+        <v>686.11</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>238.19</v>
+        <v>191.26</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>-224.21</v>
+        <v>-149.67</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2959,13 +2959,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>1401.43</v>
+        <v>904.25</v>
       </c>
       <c r="V22" t="n">
-        <v>800.05</v>
+        <v>906.01</v>
       </c>
       <c r="W22" t="n">
-        <v>861.43</v>
+        <v>912.5</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2994,16 +2994,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1135.94</v>
+        <v>520.97</v>
       </c>
       <c r="G23" t="n">
-        <v>-36.22</v>
+        <v>67.97</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>-81.18</v>
+        <v>-10.78</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>510.2</v>
+        <v>164.38</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>-146.57</v>
+        <v>-89.99</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -3030,7 +3030,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>-128.54</v>
+        <v>-43.13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -3042,16 +3042,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>-58.03</v>
+        <v>17.9</v>
       </c>
       <c r="W23" t="n">
-        <v>320.02</v>
+        <v>376.61</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>-24.24</v>
+        <v>60.36</v>
       </c>
       <c r="Z23" t="n">
         <v>0</v>
@@ -3074,16 +3074,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>122.73</v>
+        <v>165.04</v>
       </c>
       <c r="G24" t="n">
-        <v>-81.5</v>
+        <v>6.99</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>-89.44</v>
+        <v>-4.43</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -3092,13 +3092,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>-7.46</v>
+        <v>27.43</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>-101.2</v>
+        <v>-53.2</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>-85.45</v>
+        <v>-26.64</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -3122,16 +3122,16 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>-82.26</v>
+        <v>5.25</v>
       </c>
       <c r="W24" t="n">
-        <v>80.29</v>
+        <v>166.67</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>-37.61</v>
+        <v>43.95</v>
       </c>
       <c r="Z24" t="n">
         <v>0</v>
@@ -3154,16 +3154,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1909.23</v>
+        <v>765.76</v>
       </c>
       <c r="G25" t="n">
-        <v>231.52</v>
+        <v>418.53</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>-134.01</v>
+        <v>-9.99</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -3172,13 +3172,13 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>955.3</v>
+        <v>294.79</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>114.74</v>
+        <v>78.05</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -3190,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>-176.41</v>
+        <v>-66.81</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -3199,19 +3199,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>124.51</v>
+        <v>200.39</v>
       </c>
       <c r="V25" t="n">
-        <v>96.54</v>
+        <v>292.69</v>
       </c>
       <c r="W25" t="n">
-        <v>1121.24</v>
+        <v>1182.96</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>318.2</v>
+        <v>454.65</v>
       </c>
       <c r="Z25" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>-192.66</v>
+        <v>-73.5</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -3246,19 +3246,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>-114.38</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>-243.69</v>
+        <v>-18.53</v>
       </c>
       <c r="L26" t="n">
-        <v>-215.66</v>
+        <v>-107.36</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>-205.07</v>
+        <v>-60.76</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -3267,31 +3267,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>-54.85</v>
+        <v>-18.73</v>
       </c>
       <c r="R26" t="n">
-        <v>-178.83</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-187.26</v>
+        <v>-35.46</v>
       </c>
       <c r="U26" t="n">
-        <v>-249.41</v>
+        <v>-26.39</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>-189.8</v>
+        <v>17.96</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>-72.37</v>
+        <v>0</v>
       </c>
       <c r="Z26" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>-252.01</v>
+        <v>-100.22</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -3329,16 +3329,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>-322.66</v>
+        <v>-2.44</v>
       </c>
       <c r="L27" t="n">
-        <v>-311.66</v>
+        <v>-159.87</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>-242.92</v>
+        <v>-38.46</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -3350,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>-95.69</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -3359,13 +3359,13 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>-348.05</v>
+        <v>-48.54</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>-215.02</v>
+        <v>23.82</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -3394,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>-350.87</v>
+        <v>-161.11</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -3409,16 +3409,16 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>-389.96</v>
+        <v>-11.2</v>
       </c>
       <c r="L28" t="n">
-        <v>-424.71</v>
+        <v>-233.13</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>-343.77</v>
+        <v>-48.2</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -3439,13 +3439,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>-390.14</v>
+        <v>-34.75</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>-330.95</v>
+        <v>-20.1</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>424.12</v>
+        <v>356.97</v>
       </c>
       <c r="G29" t="n">
-        <v>-28.72</v>
+        <v>98.31</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>-60.81</v>
+        <v>2.17</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -3492,13 +3492,13 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>408.02</v>
+        <v>358</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>-97.32</v>
+        <v>-39.07</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -3510,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>-106.81</v>
+        <v>-45</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -3519,19 +3519,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.61</v>
+        <v>313.85</v>
       </c>
       <c r="V29" t="n">
-        <v>-41.48</v>
+        <v>55.1</v>
       </c>
       <c r="W29" t="n">
-        <v>135.26</v>
+        <v>193.51</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>19.53</v>
+        <v>107.47</v>
       </c>
       <c r="Z29" t="n">
         <v>0</v>
@@ -3554,16 +3554,16 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>6.48</v>
+        <v>34.33</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.86</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>-10.02</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3572,13 +3572,13 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>-26.55</v>
+        <v>0.8</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>-46.07</v>
+        <v>-22.78</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -3590,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>-22.02</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -3599,19 +3599,19 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>-9.98</v>
+        <v>34.73</v>
       </c>
       <c r="V30" t="n">
-        <v>-8.1</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>-4.92</v>
+        <v>40.79</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>-10.52</v>
+        <v>0</v>
       </c>
       <c r="Z30" t="n">
         <v>0</v>
@@ -3628,73 +3628,73 @@
         <v>118</v>
       </c>
       <c r="D31" t="n">
-        <v>-54.71</v>
+        <v>-29.26</v>
       </c>
       <c r="E31" t="n">
-        <v>-126.61</v>
+        <v>-63.31</v>
       </c>
       <c r="F31" t="n">
-        <v>13.55</v>
+        <v>44.93</v>
       </c>
       <c r="G31" t="n">
-        <v>-13.2</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-15.73</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>-55.22</v>
+        <v>-29.86</v>
       </c>
       <c r="K31" t="n">
-        <v>-81.92</v>
+        <v>-39.43</v>
       </c>
       <c r="L31" t="n">
-        <v>-13.28</v>
+        <v>15.33</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>-71.26</v>
+        <v>-46.98</v>
       </c>
       <c r="O31" t="n">
-        <v>-91.12</v>
+        <v>-63.46</v>
       </c>
       <c r="P31" t="n">
-        <v>-85.34</v>
+        <v>-51.19</v>
       </c>
       <c r="Q31" t="n">
-        <v>257.44</v>
+        <v>323.96</v>
       </c>
       <c r="R31" t="n">
-        <v>-47.31</v>
+        <v>-29.37</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>-103.46</v>
+        <v>-64.97</v>
       </c>
       <c r="U31" t="n">
-        <v>-74.29</v>
+        <v>-30.37</v>
       </c>
       <c r="V31" t="n">
-        <v>-14.08</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>36.41</v>
+        <v>118.73</v>
       </c>
       <c r="X31" t="n">
-        <v>-16.5</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>-21.56</v>
+        <v>38.67</v>
       </c>
       <c r="Z31" t="n">
-        <v>-85.85</v>
+        <v>-25.38</v>
       </c>
     </row>
     <row r="32">
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>-9.41</v>
+        <v>23.06</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3732,25 +3732,25 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>-63.93</v>
+        <v>-33.9</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>-54.87</v>
+        <v>-35.93</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>-55.13</v>
+        <v>-24.01</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>-22.49</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3765,13 +3765,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0.43</v>
+        <v>61.71</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>-16.29</v>
+        <v>0</v>
       </c>
       <c r="Z32" t="n">
         <v>0</v>
@@ -3794,16 +3794,16 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>2825.39</v>
+        <v>1368.48</v>
       </c>
       <c r="G33" t="n">
-        <v>173.86</v>
+        <v>317.54</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>-155.54</v>
+        <v>-89.87</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3812,13 +3812,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>1493.88</v>
+        <v>708.39</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>61.27</v>
+        <v>106.32</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -3830,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>-180.15</v>
+        <v>-105.76</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3839,19 +3839,19 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>2219.68</v>
+        <v>960.38</v>
       </c>
       <c r="V33" t="n">
-        <v>332.4</v>
+        <v>560.12</v>
       </c>
       <c r="W33" t="n">
-        <v>1298.06</v>
+        <v>1344.79</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>615.77</v>
+        <v>690.16</v>
       </c>
       <c r="Z33" t="n">
         <v>0</v>
@@ -3874,16 +3874,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>80.15</v>
+        <v>107</v>
       </c>
       <c r="G34" t="n">
-        <v>-55.68</v>
+        <v>17.08</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-47.06</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3892,13 +3892,13 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>-22.59</v>
+        <v>5.16</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>-98.34</v>
+        <v>-60.48</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>-61.62</v>
+        <v>-25.08</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3922,16 +3922,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>-42.66</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>60.34</v>
+        <v>124.35</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.07</v>
+        <v>86.55</v>
       </c>
       <c r="Z34" t="n">
         <v>0</v>
@@ -3954,16 +3954,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>152.15</v>
+        <v>188.27</v>
       </c>
       <c r="G35" t="n">
-        <v>-18.55</v>
+        <v>179.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>-81.18</v>
+        <v>-41.1</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3972,13 +3972,13 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>-62.02</v>
+        <v>-15.22</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>-188.23</v>
+        <v>-77.07</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -3990,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>-141.32</v>
+        <v>-71.93</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -4002,16 +4002,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>-35.11</v>
+        <v>100.65</v>
       </c>
       <c r="W35" t="n">
-        <v>64.72</v>
+        <v>193.23</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>-6.42</v>
+        <v>218.77</v>
       </c>
       <c r="Z35" t="n">
         <v>0</v>
@@ -4028,70 +4028,70 @@
         <v>124</v>
       </c>
       <c r="D36" t="n">
-        <v>-133.31</v>
+        <v>-51.01</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>587.19</v>
+        <v>288.41</v>
       </c>
       <c r="G36" t="n">
-        <v>-30.48</v>
+        <v>180.32</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>-132.39</v>
+        <v>-63.68</v>
       </c>
       <c r="J36" t="n">
-        <v>-175</v>
+        <v>-111.76</v>
       </c>
       <c r="K36" t="n">
-        <v>216.15</v>
+        <v>315.92</v>
       </c>
       <c r="L36" t="n">
-        <v>154.86</v>
+        <v>9.23</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>-212.47</v>
+        <v>-115.12</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>-166.45</v>
+        <v>-75.66</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>-209.57</v>
+        <v>-124.17</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>-201.26</v>
+        <v>-115.88</v>
       </c>
       <c r="U36" t="n">
-        <v>-76.42</v>
+        <v>15.82</v>
       </c>
       <c r="V36" t="n">
-        <v>-56.23</v>
+        <v>105.08</v>
       </c>
       <c r="W36" t="n">
-        <v>186.1</v>
+        <v>298.14</v>
       </c>
       <c r="X36" t="n">
-        <v>-94.75</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>151.92</v>
+        <v>351.27</v>
       </c>
       <c r="Z36" t="n">
         <v>0</v>
@@ -4108,70 +4108,70 @@
         <v>125</v>
       </c>
       <c r="D37" t="n">
-        <v>-141.38</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>102.21</v>
+        <v>129.66</v>
       </c>
       <c r="G37" t="n">
-        <v>3.29</v>
+        <v>257.07</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-88.64</v>
+        <v>-83.59</v>
       </c>
       <c r="J37" t="n">
-        <v>-141.79</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>-447.6</v>
+        <v>-44</v>
       </c>
       <c r="L37" t="n">
-        <v>-103.37</v>
+        <v>-53.23</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>-212.91</v>
+        <v>-77.66</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>-199.17</v>
+        <v>-60.29</v>
       </c>
       <c r="Q37" t="n">
-        <v>-219.15</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>-145.75</v>
+        <v>-118.56</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>-458.28</v>
+        <v>-89.84</v>
       </c>
       <c r="U37" t="n">
-        <v>-428.65</v>
+        <v>4.84</v>
       </c>
       <c r="V37" t="n">
-        <v>-23.23</v>
+        <v>158.67</v>
       </c>
       <c r="W37" t="n">
-        <v>67.38</v>
+        <v>297.23</v>
       </c>
       <c r="X37" t="n">
-        <v>-6.92</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>35.5</v>
+        <v>258.6</v>
       </c>
       <c r="Z37" t="n">
         <v>0</v>
@@ -4194,16 +4194,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>503.1</v>
+        <v>335.47</v>
       </c>
       <c r="G38" t="n">
-        <v>-37.7</v>
+        <v>178.56</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-155.44</v>
+        <v>-63.23</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -4212,13 +4212,13 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>139.49</v>
+        <v>35.07</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>-237.09</v>
+        <v>-141.94</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -4230,7 +4230,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>-253.89</v>
+        <v>-130.14</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -4239,19 +4239,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>4.26</v>
+        <v>96.14</v>
       </c>
       <c r="V38" t="n">
-        <v>-87.49</v>
+        <v>102.89</v>
       </c>
       <c r="W38" t="n">
-        <v>216.41</v>
+        <v>312.08</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>218.13</v>
+        <v>436.32</v>
       </c>
       <c r="Z38" t="n">
         <v>0</v>
@@ -4354,34 +4354,34 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>702.97</v>
+        <v>597</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.79</v>
+        <v>118.38</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-70.87</v>
+        <v>-46.06</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>9.87</v>
+        <v>50.18</v>
       </c>
       <c r="L40" t="n">
-        <v>386.22</v>
+        <v>320.72</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>-120.22</v>
+        <v>-81.94</v>
       </c>
       <c r="O40" t="n">
-        <v>58.06</v>
+        <v>36.22</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -4390,28 +4390,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>-124.97</v>
+        <v>-86.09</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>-142.35</v>
+        <v>-114.25</v>
       </c>
       <c r="U40" t="n">
-        <v>56.84</v>
+        <v>102.76</v>
       </c>
       <c r="V40" t="n">
-        <v>-9.93</v>
+        <v>95.35</v>
       </c>
       <c r="W40" t="n">
-        <v>518.64</v>
+        <v>615.96</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>64.17</v>
+        <v>138.75</v>
       </c>
       <c r="Z40" t="n">
         <v>0</v>
@@ -4434,16 +4434,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>4428.75</v>
+        <v>1255.54</v>
       </c>
       <c r="G41" t="n">
-        <v>201.07</v>
+        <v>341.51</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>-123.92</v>
+        <v>-55.87</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -4452,13 +4452,13 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>2381.76</v>
+        <v>568.31</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>31.71</v>
+        <v>22.89</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -4470,7 +4470,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>-197.63</v>
+        <v>-134.45</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -4482,16 +4482,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>129.02</v>
+        <v>255.77</v>
       </c>
       <c r="W41" t="n">
-        <v>1619.45</v>
+        <v>1663.22</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>399.2</v>
+        <v>476.09</v>
       </c>
       <c r="Z41" t="n">
         <v>0</v>
@@ -4514,34 +4514,34 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>2006.42</v>
+        <v>1164.14</v>
       </c>
       <c r="G42" t="n">
-        <v>73.64</v>
+        <v>205.46</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>-113.54</v>
+        <v>-60.19</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>131.73</v>
+        <v>143.07</v>
       </c>
       <c r="L42" t="n">
-        <v>1040.82</v>
+        <v>534.32</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>-122.76</v>
+        <v>-74.65</v>
       </c>
       <c r="O42" t="n">
-        <v>292.79</v>
+        <v>161.38</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -4550,28 +4550,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>-196.38</v>
+        <v>-124.36</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>-183.29</v>
+        <v>-123.52</v>
       </c>
       <c r="U42" t="n">
-        <v>240.82</v>
+        <v>241.42</v>
       </c>
       <c r="V42" t="n">
-        <v>53.63</v>
+        <v>180.15</v>
       </c>
       <c r="W42" t="n">
-        <v>1413.68</v>
+        <v>1465.36</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>145.13</v>
+        <v>227.11</v>
       </c>
       <c r="Z42" t="n">
         <v>0</v>
@@ -4594,16 +4594,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>870.4</v>
+        <v>488.88</v>
       </c>
       <c r="G43" t="n">
-        <v>100.75</v>
+        <v>258.67</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>-143.52</v>
+        <v>-71.26</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4612,13 +4612,13 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>354.9</v>
+        <v>126.8</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>-132.64</v>
+        <v>-72.62</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -4630,7 +4630,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>-208.5</v>
+        <v>-138.01</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -4642,16 +4642,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>30.88</v>
+        <v>154.11</v>
       </c>
       <c r="W43" t="n">
-        <v>659.7</v>
+        <v>730.49</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>438.67</v>
+        <v>586.47</v>
       </c>
       <c r="Z43" t="n">
         <v>0</v>
@@ -4674,67 +4674,67 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>1491.82</v>
+        <v>800.82</v>
       </c>
       <c r="G44" t="n">
-        <v>69.2</v>
+        <v>280.88</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>-86.18</v>
+        <v>-52.17</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>13.26</v>
+        <v>51.6</v>
       </c>
       <c r="L44" t="n">
-        <v>839.73</v>
+        <v>393</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>-113.97</v>
+        <v>-64.17</v>
       </c>
       <c r="O44" t="n">
-        <v>101.67</v>
+        <v>98.37</v>
       </c>
       <c r="P44" t="n">
-        <v>-195.72</v>
+        <v>-151.96</v>
       </c>
       <c r="Q44" t="n">
-        <v>707.78</v>
+        <v>765.27</v>
       </c>
       <c r="R44" t="n">
-        <v>-128.2</v>
+        <v>-92.26</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>-160.47</v>
+        <v>-113.92</v>
       </c>
       <c r="U44" t="n">
-        <v>77.28</v>
+        <v>113.77</v>
       </c>
       <c r="V44" t="n">
-        <v>41.17</v>
+        <v>222.22</v>
       </c>
       <c r="W44" t="n">
-        <v>819.84</v>
+        <v>872.51</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>58.82</v>
+        <v>181.11</v>
       </c>
       <c r="Z44" t="n">
-        <v>-19.84</v>
+        <v>29.34</v>
       </c>
     </row>
     <row r="45">
@@ -4748,70 +4748,70 @@
         <v>134</v>
       </c>
       <c r="D45" t="n">
-        <v>-62.02</v>
+        <v>-91.05</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>380.47</v>
+        <v>365.15</v>
       </c>
       <c r="G45" t="n">
-        <v>2.43</v>
+        <v>182.27</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>-98.39</v>
+        <v>-28.11</v>
       </c>
       <c r="J45" t="n">
-        <v>-63.23</v>
+        <v>-99.99</v>
       </c>
       <c r="K45" t="n">
-        <v>-76.05</v>
+        <v>84.38</v>
       </c>
       <c r="L45" t="n">
-        <v>85.42</v>
+        <v>100.28</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>-153.59</v>
+        <v>-84.96</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>-120.02</v>
+        <v>-37.53</v>
       </c>
       <c r="Q45" t="n">
-        <v>221.11</v>
+        <v>439.02</v>
       </c>
       <c r="R45" t="n">
-        <v>-150.28</v>
+        <v>-93.38</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>-103.63</v>
+        <v>-35.81</v>
       </c>
       <c r="U45" t="n">
-        <v>-94.66</v>
+        <v>35.92</v>
       </c>
       <c r="V45" t="n">
-        <v>-16.57</v>
+        <v>138.49</v>
       </c>
       <c r="W45" t="n">
-        <v>293.04</v>
+        <v>476.26</v>
       </c>
       <c r="X45" t="n">
-        <v>-53.08</v>
+        <v>-100.88</v>
       </c>
       <c r="Y45" t="n">
-        <v>138.09</v>
+        <v>354.26</v>
       </c>
       <c r="Z45" t="n">
         <v>0</v>
@@ -4828,40 +4828,40 @@
         <v>135</v>
       </c>
       <c r="D46" t="n">
-        <v>-87.3</v>
+        <v>-54.21</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>603.91</v>
+        <v>400.97</v>
       </c>
       <c r="G46" t="n">
-        <v>30.1</v>
+        <v>241.62</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>-84.99</v>
+        <v>-46.09</v>
       </c>
       <c r="J46" t="n">
-        <v>-86.47</v>
+        <v>-53.23</v>
       </c>
       <c r="K46" t="n">
-        <v>-132.23</v>
+        <v>-10.64</v>
       </c>
       <c r="L46" t="n">
-        <v>191.71</v>
+        <v>93.85</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>-143.44</v>
+        <v>-77.02</v>
       </c>
       <c r="O46" t="n">
-        <v>-196.44</v>
+        <v>-96.22</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -4870,28 +4870,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>-146.29</v>
+        <v>-92.98</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>-173.27</v>
+        <v>-73.37</v>
       </c>
       <c r="U46" t="n">
-        <v>-134.07</v>
+        <v>-15.78</v>
       </c>
       <c r="V46" t="n">
-        <v>-4.09</v>
+        <v>166.77</v>
       </c>
       <c r="W46" t="n">
-        <v>369.14</v>
+        <v>530.67</v>
       </c>
       <c r="X46" t="n">
-        <v>-46.71</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>106.73</v>
+        <v>289.45</v>
       </c>
       <c r="Z46" t="n">
         <v>0</v>
@@ -4914,16 +4914,16 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>-4.13</v>
+        <v>55.19</v>
       </c>
       <c r="G47" t="n">
-        <v>-52.28</v>
+        <v>44.63</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>-56.81</v>
+        <v>-9.72</v>
       </c>
       <c r="J47" t="n">
         <v>0</v>
@@ -4932,13 +4932,13 @@
         <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>-150.43</v>
+        <v>-87.42</v>
       </c>
       <c r="M47" t="n">
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>-213.85</v>
+        <v>-80.32</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
@@ -4950,7 +4950,7 @@
         <v>0</v>
       </c>
       <c r="R47" t="n">
-        <v>-125.52</v>
+        <v>-17.77</v>
       </c>
       <c r="S47" t="n">
         <v>0</v>
@@ -4962,16 +4962,16 @@
         <v>0</v>
       </c>
       <c r="V47" t="n">
-        <v>-66.64</v>
+        <v>24.16</v>
       </c>
       <c r="W47" t="n">
-        <v>-75.33</v>
+        <v>62.46</v>
       </c>
       <c r="X47" t="n">
         <v>0</v>
       </c>
       <c r="Y47" t="n">
-        <v>-90.4</v>
+        <v>29.39</v>
       </c>
       <c r="Z47" t="n">
         <v>0</v>
@@ -4988,13 +4988,13 @@
         <v>138</v>
       </c>
       <c r="D48" t="n">
-        <v>-24.53</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>89.25</v>
+        <v>118.77</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -5006,19 +5006,19 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>-20.34</v>
+        <v>0</v>
       </c>
       <c r="K48" t="n">
         <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>5.67</v>
+        <v>39.09</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>-108.66</v>
+        <v>-44.51</v>
       </c>
       <c r="O48" t="n">
         <v>0</v>
@@ -5030,7 +5030,7 @@
         <v>0</v>
       </c>
       <c r="R48" t="n">
-        <v>-41.12</v>
+        <v>-12.97</v>
       </c>
       <c r="S48" t="n">
         <v>0</v>
@@ -5045,7 +5045,7 @@
         <v>0</v>
       </c>
       <c r="W48" t="n">
-        <v>-14.26</v>
+        <v>49.89</v>
       </c>
       <c r="X48" t="n">
         <v>0</v>
@@ -5068,37 +5068,37 @@
         <v>139</v>
       </c>
       <c r="D49" t="n">
-        <v>-136.79</v>
+        <v>-60.03</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>830.1</v>
+        <v>836.01</v>
       </c>
       <c r="G49" t="n">
-        <v>-53.54</v>
+        <v>37.34</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>-77.67</v>
+        <v>-23.35</v>
       </c>
       <c r="J49" t="n">
-        <v>-115.08</v>
+        <v>-38.32</v>
       </c>
       <c r="K49" t="n">
         <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>939.8</v>
+        <v>804.2</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>-67.07</v>
+        <v>-15.36</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
@@ -5110,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="R49" t="n">
-        <v>-110.09</v>
+        <v>-39.77</v>
       </c>
       <c r="S49" t="n">
         <v>0</v>
@@ -5119,16 +5119,16 @@
         <v>0</v>
       </c>
       <c r="U49" t="n">
-        <v>1135.51</v>
+        <v>1124.65</v>
       </c>
       <c r="V49" t="n">
-        <v>128.83</v>
+        <v>594.68</v>
       </c>
       <c r="W49" t="n">
-        <v>111.16</v>
+        <v>162.87</v>
       </c>
       <c r="X49" t="n">
-        <v>-67.29</v>
+        <v>0</v>
       </c>
       <c r="Y49" t="n">
         <v>0</v>
